--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1178,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1311,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1194,7 +1327,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1210,13 +1343,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1327,14 +1414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1343,14 +1452,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1359,13 +1490,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +704,254 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,26 +1026,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -820,26 +1064,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0683</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +1118,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,26 +1158,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -952,26 +1196,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1250,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1046,26 +1290,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1084,26 +1328,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1382,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1178,26 +1422,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0683</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1216,26 +1460,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0683</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,7 +1514,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1310,26 +1554,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1348,254 +1592,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013404</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成标普500等权重指数（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>096001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成标普500等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012864</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012865</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1609,144 +1625,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/VRTX-福泰制药.xlsx
+++ b/数据整理/stocks/其他/VRTX-福泰制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富纳斯达克生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -952,138 +1211,6 @@
       </c>
       <c r="H9" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1158,26 +1285,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1196,26 +1323,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0683</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1377,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1290,26 +1417,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1328,26 +1455,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1422,26 +1549,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1460,26 +1587,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1554,26 +1681,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1592,26 +1719,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1620,6 +1747,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
